--- a/xlsx/資產階級_intext.xlsx
+++ b/xlsx/資產階級_intext.xlsx
@@ -29,7 +29,7 @@
     <t>西方世界</t>
   </si>
   <si>
-    <t>政策_政策_政治_資產階級</t>
+    <t>体育运动_体育运动_草根_資產階級</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
